--- a/Results/Unmatched CQs/P3.xlsx
+++ b/Results/Unmatched CQs/P3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psralha4\Desktop\F_Generative AI Results\Repository Files\Results\Unmatched CQs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psralha4\Documents\RETROFIT-CQs\RETROFIT-CQs\Results\Unmatched CQs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5633F2DD-65D8-44ED-843A-EDA9479197D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B57A70-C8FE-4FF9-871D-73C6E655C7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,17 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
-  <si>
-    <t xml:space="preserve">Ontologiy Name </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
   <si>
     <t>LLMs</t>
   </si>
   <si>
-    <t>Unmacyed CQs</t>
-  </si>
-  <si>
     <t xml:space="preserve">Video Game </t>
   </si>
   <si>
@@ -113,9 +107,6 @@
     <t>How big percentage of players skip the cutscenes?</t>
   </si>
   <si>
-    <t>Promp3</t>
-  </si>
-  <si>
     <t>How much damage does a weapon deal?</t>
   </si>
   <si>
@@ -129,6 +120,54 @@
   </si>
   <si>
     <t>What is a thing description?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ontology Name </t>
+  </si>
+  <si>
+    <t>Unmatched CQs</t>
+  </si>
+  <si>
+    <t>Dem@care</t>
+  </si>
+  <si>
+    <t>What types of demographic data are collected?</t>
+  </si>
+  <si>
+    <t>What are the main types of laterality?</t>
+  </si>
+  <si>
+    <t>What are the main types of events?</t>
+  </si>
+  <si>
+    <t>What are the main categories of events?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the main types of sensors? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the possible types of wearable sensors? </t>
+  </si>
+  <si>
+    <t>What are the possible types of fixed sensors?</t>
+  </si>
+  <si>
+    <t>What are the possible types processing components?</t>
+  </si>
+  <si>
+    <t>What is the gender information?</t>
+  </si>
+  <si>
+    <t>What information is of clinical interest regarding an awakening?</t>
+  </si>
+  <si>
+    <t>What are the types of indoor place?</t>
+  </si>
+  <si>
+    <t>What states are detected?</t>
+  </si>
+  <si>
+    <t>Prompt3</t>
   </si>
 </sst>
 </file>
@@ -178,20 +217,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A36"/>
+      <selection activeCell="B9" sqref="B9:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,307 +525,423 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="2"/>
+      <c r="B5" s="3"/>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="2"/>
+      <c r="B6" s="3"/>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="2"/>
+      <c r="B7" s="3"/>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="2"/>
+      <c r="B8" s="3"/>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
+      <c r="B9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="2"/>
+      <c r="B10" s="3"/>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="3"/>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="2"/>
+      <c r="B12" s="3"/>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="2" t="s">
-        <v>6</v>
+      <c r="B13" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="2"/>
+      <c r="B14" s="3"/>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="2"/>
+      <c r="B15" s="3"/>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="5"/>
+      <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="3"/>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="3"/>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s">
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="3"/>
+      <c r="B38" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="3"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="3"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="3"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="3"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="C42" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="3"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="5"/>
+      <c r="C43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="C44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5"/>
+      <c r="C45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5"/>
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5"/>
+      <c r="C49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="5"/>
+      <c r="C51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="5"/>
+      <c r="C52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="5"/>
+      <c r="C53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="5"/>
+      <c r="C54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="5"/>
+      <c r="C55" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5"/>
+      <c r="C56" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B37:B43"/>
+  <mergeCells count="12">
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="A38:A56"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="A17:A36"/>
+    <mergeCell ref="B38:B45"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="A4:A15"/>
     <mergeCell ref="B17:B26"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="A17:A36"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A38" r:id="rId1" xr:uid="{E1A4AF54-A0B6-4C68-B442-4C9C3A2914A5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>